--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang1/03.XNBH/XNBH_Led3AE_070125.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang1/03.XNBH/XNBH_Led3AE_070125.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$21</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -62,9 +62,6 @@
     <t>Nguyên Nhân</t>
   </si>
   <si>
-    <t>Website: http://vn-et.com</t>
-  </si>
-  <si>
     <t>Trần Thị Thu Hà</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>Địa chỉ:</t>
-  </si>
-  <si>
-    <t>ĐT: 0915 223 399</t>
   </si>
   <si>
     <t>ĐC: AA46 TT19 KĐT Văn Quán, Phường Văn Quán, Quận Hà Đông, Hà Nội</t>
@@ -129,19 +123,25 @@
     <t>Đặng Ngọc Mai</t>
   </si>
   <si>
-    <t>Người đại diện: Đại lý Led 3AE</t>
-  </si>
-  <si>
     <t>SL: 1</t>
   </si>
   <si>
     <t>Lỗi nguồn</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hà Nội, ngày 07 tháng 01 Năm 2025</t>
-  </si>
-  <si>
     <t>Card Reader</t>
+  </si>
+  <si>
+    <t>Website: http://vnetgps.vn//</t>
+  </si>
+  <si>
+    <t>ĐT: 0915.223.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hà Nội, ngày 10 tháng 01 Năm 2025</t>
+  </si>
+  <si>
+    <t>Người đại diện: Đại lý Anh Trực</t>
   </si>
 </sst>
 </file>
@@ -151,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,12 +248,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -404,10 +398,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -419,7 +413,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -433,7 +429,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,9 +486,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,25 +504,55 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -538,89 +561,38 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="17"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="17"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="17"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,10 +951,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D3" sqref="D3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1002,260 +974,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55"/>
+      <c r="A1" s="56"/>
       <c r="B1" s="56"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
       <c r="M8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
       <c r="L9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>1</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
-        <v>1</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="32" t="s">
+      <c r="E11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16" t="s">
+      <c r="H14" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="48"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="42"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
@@ -1280,89 +1252,77 @@
       <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="23"/>
+      <c r="A20" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-    </row>
-    <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+    </row>
+    <row r="62" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:I10"/>
+  <mergeCells count="21">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
